--- a/data-raw/mstate-nma/params-lookup-2L-t790m-osi.xlsx
+++ b/data-raw/mstate-nma/params-lookup-2L-t790m-osi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="-29120" yWindow="-18920" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="weibull" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>transition</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>transition_id</t>
+  </si>
+  <si>
+    <t>d_name</t>
+  </si>
+  <si>
+    <t>mu_name</t>
+  </si>
+  <si>
+    <t>mu_1</t>
+  </si>
+  <si>
+    <t>mu_2</t>
+  </si>
+  <si>
+    <t>mu_4</t>
+  </si>
+  <si>
+    <t>mu_5</t>
+  </si>
+  <si>
+    <t>mu_6</t>
+  </si>
+  <si>
+    <t>mu_3</t>
   </si>
 </sst>
 </file>
@@ -118,8 +142,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -166,7 +192,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -188,6 +214,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -209,6 +236,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -553,7 +581,7 @@
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +600,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -589,8 +623,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -606,8 +643,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -623,8 +663,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -638,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -654,8 +697,11 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -670,6 +716,9 @@
       </c>
       <c r="F7">
         <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -696,7 +745,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,8 +764,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -732,8 +787,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -749,8 +807,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -766,8 +827,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -781,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -797,8 +861,11 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -813,6 +880,9 @@
       </c>
       <c r="F7">
         <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -828,10 +898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -839,7 +909,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -858,8 +928,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -875,8 +951,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -892,8 +971,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -909,8 +991,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -926,8 +1011,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -941,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -955,7 +1043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -971,8 +1059,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1079,11 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1016,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1027,7 +1121,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1140,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1063,8 +1163,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1183,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1097,8 +1203,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1223,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1159,8 +1271,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1176,8 +1291,11 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>13</v>
       </c>

--- a/data-raw/mstate-nma/params-lookup-2L-t790m-osi.xlsx
+++ b/data-raw/mstate-nma/params-lookup-2L-t790m-osi.xlsx
@@ -78,22 +78,22 @@
     <t>mu_name</t>
   </si>
   <si>
-    <t>mu_1</t>
-  </si>
-  <si>
-    <t>mu_2</t>
-  </si>
-  <si>
-    <t>mu_4</t>
-  </si>
-  <si>
-    <t>mu_5</t>
-  </si>
-  <si>
-    <t>mu_6</t>
-  </si>
-  <si>
-    <t>mu_3</t>
+    <t>M_1</t>
+  </si>
+  <si>
+    <t>M_2</t>
+  </si>
+  <si>
+    <t>M_3</t>
+  </si>
+  <si>
+    <t>M_4</t>
+  </si>
+  <si>
+    <t>M_5</t>
+  </si>
+  <si>
+    <t>M_6</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -718,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +737,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -862,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +901,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
